--- a/src/output_files/Балхаш - Достык.xlsx
+++ b/src/output_files/Балхаш - Достык.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>Груз</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -518,14 +523,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Токырау, КЗХ</t>
+          <t>Тагынкара, КЗХ</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>46.806171</v>
+        <v>46.7769965</v>
       </c>
       <c r="G2" t="n">
-        <v>75.619201</v>
+        <v>77.1011477</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,6 +553,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -555,25 +565,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Актогай, КЗХ</t>
+          <t>Акжайдак, КЗХ</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46.952713</v>
+        <v>46.833528</v>
       </c>
       <c r="D3" t="n">
-        <v>79.68213</v>
+        <v>75.930601</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Предузловая, КЗХ</t>
+          <t>Токырау, КЗХ</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>46.9157882</v>
+        <v>46.806171</v>
       </c>
       <c r="G3" t="n">
-        <v>79.6038662</v>
+        <v>75.619201</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -596,6 +606,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -603,25 +618,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Актогай-Восточный (рзд), КЗХ</t>
+          <t>Актогай, КЗХ</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46.9199862</v>
+        <v>46.952713</v>
       </c>
       <c r="D4" t="n">
-        <v>79.6563695</v>
+        <v>79.68213</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Актогай, КЗХ</t>
+          <t>Предузловая, КЗХ</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>46.952713</v>
+        <v>46.9157882</v>
       </c>
       <c r="G4" t="n">
-        <v>79.68213</v>
+        <v>79.6038662</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -644,6 +659,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -651,25 +671,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Акши, КЗХ</t>
+          <t>Актогай-Восточный (рзд), КЗХ</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45.9493341</v>
+        <v>46.9199862</v>
       </c>
       <c r="D5" t="n">
-        <v>81.5336592</v>
+        <v>79.6563695</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Разъезд N 8, КЗХ</t>
+          <t>Актогай, КЗХ</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>46.328668</v>
+        <v>46.952713</v>
       </c>
       <c r="G5" t="n">
-        <v>80.828656</v>
+        <v>79.68213</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -692,6 +712,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -699,40 +724,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Балхаш I, КЗХ</t>
+          <t>Акши, КЗХ</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46.860569</v>
+        <v>45.9493341</v>
       </c>
       <c r="D6" t="n">
-        <v>74.93464899999999</v>
+        <v>81.5336592</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Балхаш II, КЗХ</t>
+          <t>Разъезд N 8, КЗХ</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>46.8538373</v>
+        <v>46.328668</v>
       </c>
       <c r="G6" t="n">
-        <v>74.9930265</v>
+        <v>80.828656</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Балхаш I - Достык (эксп.): 13, МЕДЬ, 4 дн.;Балхаш I - Достык: 1, ВАГОНЫ С ЛЮД, 4 дн.;</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -742,6 +763,11 @@
       <c r="N6" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -751,25 +777,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Балхаш I, КЗХ</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>46.860569</v>
+      </c>
+      <c r="D7" t="n">
+        <v>74.93464899999999</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Балхаш II, КЗХ</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="F7" t="n">
         <v>46.8538373</v>
       </c>
-      <c r="D7" t="n">
+      <c r="G7" t="n">
         <v>74.9930265</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Балхаш I, КЗХ</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>46.860569</v>
-      </c>
-      <c r="G7" t="n">
-        <v>74.93464899999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -792,6 +818,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -799,25 +830,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Достык (эксп.), КЗХ</t>
+          <t>Балхаш II, КЗХ</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45.251151</v>
+        <v>46.8538373</v>
       </c>
       <c r="D8" t="n">
-        <v>81.485704</v>
+        <v>74.9930265</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Жаланашколь, КЗХ</t>
+          <t>Балхаш I, КЗХ</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>45.591392</v>
+        <v>46.860569</v>
       </c>
       <c r="G8" t="n">
-        <v>82.17924600000001</v>
+        <v>74.93464899999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -840,6 +871,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -847,25 +883,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Достык, КЗХ</t>
+          <t>Балхаш II, КЗХ</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45.251137</v>
+        <v>46.8538373</v>
       </c>
       <c r="D9" t="n">
-        <v>82.48572</v>
+        <v>74.9930265</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Жаланашколь, КЗХ</t>
+          <t>Орта-Дересин, КЗХ</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>45.591392</v>
+        <v>46.825208</v>
       </c>
       <c r="G9" t="n">
-        <v>82.17924600000001</v>
+        <v>75.22432000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -888,6 +924,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -895,25 +936,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Жаксыбулак, КЗХ</t>
+          <t>Достык (эксп.), КЗХ</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>46.8468678</v>
+        <v>45.251151</v>
       </c>
       <c r="D10" t="n">
-        <v>78.8362762</v>
+        <v>81.485704</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Шолькызыл, КЗХ</t>
+          <t>Жаланашколь, КЗХ</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>46.8249064</v>
+        <v>45.591392</v>
       </c>
       <c r="G10" t="n">
-        <v>78.2162211</v>
+        <v>82.17924600000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -936,6 +977,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -943,25 +989,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Достык, КЗХ</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>45.251137</v>
+      </c>
+      <c r="D11" t="n">
+        <v>82.48572</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Жаланашколь, КЗХ</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
         <v>45.591392</v>
       </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
         <v>82.17924600000001</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Достык, КЗХ</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>45.251137</v>
-      </c>
-      <c r="G11" t="n">
-        <v>82.48572</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -984,6 +1030,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -991,25 +1042,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Жаланашколь, КЗХ</t>
+          <t>Жаксыбулак, КЗХ</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>45.591392</v>
+        <v>46.8468678</v>
       </c>
       <c r="D12" t="n">
-        <v>82.17924600000001</v>
+        <v>78.8362762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Коктума, КЗХ</t>
+          <t>Предузловая, КЗХ</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>45.8119924</v>
+        <v>46.9157882</v>
       </c>
       <c r="G12" t="n">
-        <v>81.7167031</v>
+        <v>79.6038662</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1032,6 +1083,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1039,25 +1095,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Коктума, КЗХ</t>
+          <t>Жаксыбулак, КЗХ</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>45.8119924</v>
+        <v>46.8468678</v>
       </c>
       <c r="D13" t="n">
-        <v>81.7167031</v>
+        <v>78.8362762</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Разъезд 13 км, КЗХ</t>
+          <t>Шолькызыл, КЗХ</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>45.8680566</v>
+        <v>46.8249064</v>
       </c>
       <c r="G13" t="n">
-        <v>81.62494169999999</v>
+        <v>78.2162211</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1080,6 +1136,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1087,25 +1148,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Орта-Дересин, КЗХ</t>
+          <t>Жаланашколь, КЗХ</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>46.825208</v>
+        <v>45.591392</v>
       </c>
       <c r="D14" t="n">
-        <v>75.22432000000001</v>
+        <v>82.17924600000001</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Балхаш II, КЗХ</t>
+          <t>Коктума, КЗХ</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>46.8538373</v>
+        <v>45.8119924</v>
       </c>
       <c r="G14" t="n">
-        <v>74.9930265</v>
+        <v>81.7167031</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1128,6 +1189,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1135,25 +1201,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Предузловая, КЗХ</t>
+          <t>Коктума, КЗХ</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>46.9157882</v>
+        <v>45.8119924</v>
       </c>
       <c r="D15" t="n">
-        <v>79.6038662</v>
+        <v>81.7167031</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Жаксыбулак, КЗХ</t>
+          <t>Разъезд 13 км, КЗХ</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>46.8468678</v>
+        <v>45.8680566</v>
       </c>
       <c r="G15" t="n">
-        <v>78.8362762</v>
+        <v>81.62494169999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1176,6 +1242,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1183,25 +1254,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Разъезд 13 км, КЗХ</t>
+          <t>Орта-Дересин, КЗХ</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>45.8680566</v>
+        <v>46.825208</v>
       </c>
       <c r="D16" t="n">
-        <v>81.62494169999999</v>
+        <v>75.22432000000001</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Акши, КЗХ</t>
+          <t>Балхаш II, КЗХ</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>45.9493341</v>
+        <v>46.8538373</v>
       </c>
       <c r="G16" t="n">
-        <v>81.5336592</v>
+        <v>74.9930265</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1224,6 +1295,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1231,25 +1307,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Разъезд N 8, КЗХ</t>
+          <t>Орта-Дересин, КЗХ</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>46.328668</v>
+        <v>46.825208</v>
       </c>
       <c r="D17" t="n">
-        <v>80.828656</v>
+        <v>75.22432000000001</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Сайкан (рзд), КЗХ</t>
+          <t>Токырау, КЗХ</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>46.4227816</v>
+        <v>46.806171</v>
       </c>
       <c r="G17" t="n">
-        <v>80.6789993</v>
+        <v>75.619201</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1272,6 +1348,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1279,36 +1360,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Разъезд № 2, КЗХ</t>
+          <t>Предузловая, КЗХ</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>46.7910745</v>
+        <v>46.9157882</v>
       </c>
       <c r="D18" t="n">
-        <v>79.9557281</v>
+        <v>79.6038662</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Актогай-Восточный (рзд), КЗХ</t>
+          <t>Актогай, КЗХ</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>46.9199862</v>
+        <v>46.952713</v>
       </c>
       <c r="G18" t="n">
-        <v>79.6563695</v>
+        <v>79.68213</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Балхаш I - Достык (эксп.): 40, МЕДЬ, 2 дн.;</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1318,6 +1403,11 @@
       <c r="N18" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -1327,25 +1417,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Разъезд № 5, КЗХ</t>
+          <t>Предузловая, КЗХ</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>46.5623932</v>
+        <v>46.9157882</v>
       </c>
       <c r="D19" t="n">
-        <v>80.4509664</v>
+        <v>79.6038662</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Сарыкум (рзд), КЗХ</t>
+          <t>Жаксыбулак, КЗХ</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>46.7140781</v>
+        <v>46.8468678</v>
       </c>
       <c r="G19" t="n">
-        <v>80.12323499999999</v>
+        <v>78.8362762</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1368,6 +1458,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1375,25 +1470,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Сайкан (рзд), КЗХ</t>
+          <t>Разъезд 13 км, КЗХ</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>46.4227816</v>
+        <v>45.8680566</v>
       </c>
       <c r="D20" t="n">
-        <v>80.6789993</v>
+        <v>81.62494169999999</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Разъезд № 5, КЗХ</t>
+          <t>Акши, КЗХ</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>46.5623932</v>
+        <v>45.9493341</v>
       </c>
       <c r="G20" t="n">
-        <v>80.4509664</v>
+        <v>81.5336592</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1416,6 +1511,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1423,25 +1523,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Сарыкум (рзд), КЗХ</t>
+          <t>Разъезд N 8, КЗХ</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>46.7140781</v>
+        <v>46.328668</v>
       </c>
       <c r="D21" t="n">
-        <v>80.12323499999999</v>
+        <v>80.828656</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Разъезд № 2, КЗХ</t>
+          <t>Сайкан (рзд), КЗХ</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>46.7910745</v>
+        <v>46.4227816</v>
       </c>
       <c r="G21" t="n">
-        <v>79.9557281</v>
+        <v>80.6789993</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1464,6 +1564,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1471,25 +1576,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Саяк, КЗХ</t>
+          <t>Разъезд № 2, КЗХ</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>46.911515</v>
+        <v>46.7910745</v>
       </c>
       <c r="D22" t="n">
-        <v>77.36278799999999</v>
+        <v>79.9557281</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Тагынкара, КЗХ</t>
+          <t>Актогай-Восточный (рзд), КЗХ</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>46.7769965</v>
+        <v>46.9199862</v>
       </c>
       <c r="G22" t="n">
-        <v>77.1011477</v>
+        <v>79.6563695</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1512,6 +1617,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1519,25 +1629,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Тагынкара, КЗХ</t>
+          <t>Разъезд № 5, КЗХ</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>46.7769965</v>
+        <v>46.5623932</v>
       </c>
       <c r="D23" t="n">
-        <v>77.1011477</v>
+        <v>80.4509664</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Акжайдак, КЗХ</t>
+          <t>Сарыкум (рзд), КЗХ</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>46.833528</v>
+        <v>46.7140781</v>
       </c>
       <c r="G23" t="n">
-        <v>75.930601</v>
+        <v>80.12323499999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1560,6 +1670,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1567,25 +1682,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Токырау, КЗХ</t>
+          <t>Сайкан (рзд), КЗХ</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>46.806171</v>
+        <v>46.4227816</v>
       </c>
       <c r="D24" t="n">
-        <v>75.619201</v>
+        <v>80.6789993</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Орта-Дересин, КЗХ</t>
+          <t>Разъезд № 5, КЗХ</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>46.825208</v>
+        <v>46.5623932</v>
       </c>
       <c r="G24" t="n">
-        <v>75.22432000000001</v>
+        <v>80.4509664</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1608,6 +1723,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1615,25 +1735,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Шолькызыл, КЗХ</t>
+          <t>Сарыкум (рзд), КЗХ</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>46.8249064</v>
+        <v>46.7140781</v>
       </c>
       <c r="D25" t="n">
-        <v>78.2162211</v>
+        <v>80.12323499999999</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Саяк, КЗХ</t>
+          <t>Разъезд № 2, КЗХ</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>46.911515</v>
+        <v>46.7910745</v>
       </c>
       <c r="G25" t="n">
-        <v>77.36278799999999</v>
+        <v>79.9557281</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1656,6 +1776,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1663,40 +1788,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Балхаш I, КЗХ</t>
+          <t>Саяк, КЗХ</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>46.860569</v>
+        <v>46.911515</v>
       </c>
       <c r="D26" t="n">
-        <v>74.93464899999999</v>
+        <v>77.36278799999999</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Балхаш II, КЗХ</t>
+          <t>Тагынкара, КЗХ</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>46.8538373</v>
+        <v>46.7769965</v>
       </c>
       <c r="G26" t="n">
-        <v>74.9930265</v>
+        <v>77.1011477</v>
       </c>
       <c r="H26" t="n">
-        <v>13</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Балхаш I - Достык (эксп.): 13, МЕДЬ, 4 дн.;</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1705,7 +1826,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">МЕДЬ        </t>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -1715,40 +1841,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Балхаш I, КЗХ</t>
+          <t>Саяк, КЗХ</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>46.860569</v>
+        <v>46.911515</v>
       </c>
       <c r="D27" t="n">
-        <v>74.93464899999999</v>
+        <v>77.36278799999999</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Балхаш II, КЗХ</t>
+          <t>Шолькызыл, КЗХ</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>46.8538373</v>
+        <v>46.8249064</v>
       </c>
       <c r="G27" t="n">
-        <v>74.9930265</v>
+        <v>78.2162211</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Балхаш I - Достык: 1, ВАГОНЫ С ЛЮД, 4 дн.;</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -1757,7 +1879,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>ВАГОНЫ С ЛЮД</t>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -1767,25 +1894,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Тагынкара, КЗХ</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>46.7769965</v>
+      </c>
+      <c r="D28" t="n">
+        <v>77.1011477</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Акжайдак, КЗХ</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="F28" t="n">
         <v>46.833528</v>
       </c>
-      <c r="D28" t="n">
+      <c r="G28" t="n">
         <v>75.930601</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Токырау, КЗХ</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>46.806171</v>
-      </c>
-      <c r="G28" t="n">
-        <v>75.619201</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1800,12 +1927,17 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -1815,25 +1947,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Актогай, КЗХ</t>
+          <t>Тагынкара, КЗХ</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>46.952713</v>
+        <v>46.7769965</v>
       </c>
       <c r="D29" t="n">
-        <v>79.68213</v>
+        <v>77.1011477</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Предузловая, КЗХ</t>
+          <t>Саяк, КЗХ</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>46.9157882</v>
+        <v>46.911515</v>
       </c>
       <c r="G29" t="n">
-        <v>79.6038662</v>
+        <v>77.36278799999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1848,12 +1980,17 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -1863,25 +2000,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Актогай-Восточный (рзд), КЗХ</t>
+          <t>Токырау, КЗХ</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>46.9199862</v>
+        <v>46.806171</v>
       </c>
       <c r="D30" t="n">
-        <v>79.6563695</v>
+        <v>75.619201</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Актогай, КЗХ</t>
+          <t>Акжайдак, КЗХ</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>46.952713</v>
+        <v>46.833528</v>
       </c>
       <c r="G30" t="n">
-        <v>79.68213</v>
+        <v>75.930601</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1896,12 +2033,17 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -1911,25 +2053,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Акши, КЗХ</t>
+          <t>Токырау, КЗХ</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45.9493341</v>
+        <v>46.806171</v>
       </c>
       <c r="D31" t="n">
-        <v>81.5336592</v>
+        <v>75.619201</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Разъезд N 8, КЗХ</t>
+          <t>Орта-Дересин, КЗХ</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>46.328668</v>
+        <v>46.825208</v>
       </c>
       <c r="G31" t="n">
-        <v>80.828656</v>
+        <v>75.22432000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1944,12 +2086,17 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -1959,25 +2106,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Балхаш I, КЗХ</t>
+          <t>Шолькызыл, КЗХ</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>46.860569</v>
+        <v>46.8249064</v>
       </c>
       <c r="D32" t="n">
-        <v>74.93464899999999</v>
+        <v>78.2162211</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Балхаш II, КЗХ</t>
+          <t>Жаксыбулак, КЗХ</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>46.8538373</v>
+        <v>46.8468678</v>
       </c>
       <c r="G32" t="n">
-        <v>74.9930265</v>
+        <v>78.8362762</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1992,12 +2139,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2007,49 +2159,50 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Балхаш II, КЗХ</t>
+          <t>Шолькызыл, КЗХ</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>46.8538373</v>
+        <v>46.8249064</v>
       </c>
       <c r="D33" t="n">
-        <v>74.9930265</v>
+        <v>78.2162211</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Балхаш I, КЗХ</t>
+          <t>Саяк, КЗХ</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>46.860569</v>
+        <v>46.911515</v>
       </c>
       <c r="G33" t="n">
-        <v>74.93464899999999</v>
+        <v>77.36278799999999</v>
       </c>
       <c r="H33" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Достык (эксп.) - Балхаш I: 44, , 0 дн.;Достык - Балхаш I: 3, , 0 дн.;</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2059,25 +2212,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Достык (эксп.), КЗХ</t>
+          <t>Акжайдак, КЗХ</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>45.251151</v>
+        <v>46.833528</v>
       </c>
       <c r="D34" t="n">
-        <v>81.485704</v>
+        <v>75.930601</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Жаланашколь, КЗХ</t>
+          <t>Тагынкара, КЗХ</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>45.591392</v>
+        <v>46.7769965</v>
       </c>
       <c r="G34" t="n">
-        <v>82.17924600000001</v>
+        <v>77.1011477</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2092,12 +2245,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t xml:space="preserve">МЕДЬ        </t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2107,25 +2265,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Достык, КЗХ</t>
+          <t>Балхаш I, КЗХ</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>45.251137</v>
+        <v>46.860569</v>
       </c>
       <c r="D35" t="n">
-        <v>82.48572</v>
+        <v>74.93464899999999</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Жаланашколь, КЗХ</t>
+          <t>Балхаш II, КЗХ</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>45.591392</v>
+        <v>46.8538373</v>
       </c>
       <c r="G35" t="n">
-        <v>82.17924600000001</v>
+        <v>74.9930265</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2140,12 +2298,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t xml:space="preserve">МЕДЬ        </t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2155,25 +2318,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Жаксыбулак, КЗХ</t>
+          <t>Балхаш II, КЗХ</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>46.8468678</v>
+        <v>46.8538373</v>
       </c>
       <c r="D36" t="n">
-        <v>78.8362762</v>
+        <v>74.9930265</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Шолькызыл, КЗХ</t>
+          <t>Орта-Дересин, КЗХ</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>46.8249064</v>
+        <v>46.825208</v>
       </c>
       <c r="G36" t="n">
-        <v>78.2162211</v>
+        <v>75.22432000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2188,12 +2351,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t xml:space="preserve">МЕДЬ        </t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2203,49 +2371,50 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Жаланашколь, КЗХ</t>
+          <t>Жаксыбулак, КЗХ</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>45.591392</v>
+        <v>46.8468678</v>
       </c>
       <c r="D37" t="n">
-        <v>82.17924600000001</v>
+        <v>78.8362762</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Достык, КЗХ</t>
+          <t>Предузловая, КЗХ</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>45.251137</v>
+        <v>46.9157882</v>
       </c>
       <c r="G37" t="n">
-        <v>82.48572</v>
+        <v>79.6038662</v>
       </c>
       <c r="H37" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Достык (эксп.) - Балхаш I: 17, , 3 дн.;Достык (эксп.) - Достык: 1, , 0 дн.;</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t xml:space="preserve">МЕДЬ        </t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2255,25 +2424,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Жаланашколь, КЗХ</t>
+          <t>Орта-Дересин, КЗХ</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>45.591392</v>
+        <v>46.825208</v>
       </c>
       <c r="D38" t="n">
-        <v>82.17924600000001</v>
+        <v>75.22432000000001</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Коктума, КЗХ</t>
+          <t>Токырау, КЗХ</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>45.8119924</v>
+        <v>46.806171</v>
       </c>
       <c r="G38" t="n">
-        <v>81.7167031</v>
+        <v>75.619201</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2288,12 +2457,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t xml:space="preserve">МЕДЬ        </t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2303,45 +2477,54 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Коктума, КЗХ</t>
+          <t>Предузловая, КЗХ</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>45.8119924</v>
+        <v>46.9157882</v>
       </c>
       <c r="D39" t="n">
-        <v>81.7167031</v>
+        <v>79.6038662</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Разъезд 13 км, КЗХ</t>
+          <t>Актогай, КЗХ</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>45.8680566</v>
+        <v>46.952713</v>
       </c>
       <c r="G39" t="n">
-        <v>81.62494169999999</v>
+        <v>79.68213</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Балхаш I - Достык (эксп.): 40, МЕДЬ, 2 дн.;</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t xml:space="preserve">МЕДЬ        </t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2351,25 +2534,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Орта-Дересин, КЗХ</t>
+          <t>Саяк, КЗХ</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>46.825208</v>
+        <v>46.911515</v>
       </c>
       <c r="D40" t="n">
-        <v>75.22432000000001</v>
+        <v>77.36278799999999</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Балхаш II, КЗХ</t>
+          <t>Шолькызыл, КЗХ</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>46.8538373</v>
+        <v>46.8249064</v>
       </c>
       <c r="G40" t="n">
-        <v>74.9930265</v>
+        <v>78.2162211</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2384,12 +2567,17 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t xml:space="preserve">МЕДЬ        </t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2399,25 +2587,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Предузловая, КЗХ</t>
+          <t>Тагынкара, КЗХ</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>46.9157882</v>
+        <v>46.7769965</v>
       </c>
       <c r="D41" t="n">
-        <v>79.6038662</v>
+        <v>77.1011477</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Жаксыбулак, КЗХ</t>
+          <t>Саяк, КЗХ</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>46.8468678</v>
+        <v>46.911515</v>
       </c>
       <c r="G41" t="n">
-        <v>78.8362762</v>
+        <v>77.36278799999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2432,12 +2620,17 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t xml:space="preserve">МЕДЬ        </t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2447,25 +2640,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Разъезд 13 км, КЗХ</t>
+          <t>Токырау, КЗХ</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>45.8680566</v>
+        <v>46.806171</v>
       </c>
       <c r="D42" t="n">
-        <v>81.62494169999999</v>
+        <v>75.619201</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Акши, КЗХ</t>
+          <t>Акжайдак, КЗХ</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>45.9493341</v>
+        <v>46.833528</v>
       </c>
       <c r="G42" t="n">
-        <v>81.5336592</v>
+        <v>75.930601</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2480,12 +2673,17 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t xml:space="preserve">МЕДЬ        </t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2495,25 +2693,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Разъезд N 8, КЗХ</t>
+          <t>Шолькызыл, КЗХ</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>46.328668</v>
+        <v>46.8249064</v>
       </c>
       <c r="D43" t="n">
-        <v>80.828656</v>
+        <v>78.2162211</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Сайкан (рзд), КЗХ</t>
+          <t>Жаксыбулак, КЗХ</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>46.4227816</v>
+        <v>46.8468678</v>
       </c>
       <c r="G43" t="n">
-        <v>80.6789993</v>
+        <v>78.8362762</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2528,12 +2726,17 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Порожний</t>
+          <t>Груженый</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t xml:space="preserve">МЕДЬ        </t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2543,25 +2746,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Разъезд № 2, КЗХ</t>
+          <t>Акжайдак, КЗХ</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>46.7910745</v>
+        <v>46.833528</v>
       </c>
       <c r="D44" t="n">
-        <v>79.9557281</v>
+        <v>75.930601</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Актогай-Восточный (рзд), КЗХ</t>
+          <t>Тагынкара, КЗХ</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>46.9199862</v>
+        <v>46.7769965</v>
       </c>
       <c r="G44" t="n">
-        <v>79.6563695</v>
+        <v>77.1011477</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2584,6 +2787,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2591,25 +2799,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Разъезд № 5, КЗХ</t>
+          <t>Акжайдак, КЗХ</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>46.5623932</v>
+        <v>46.833528</v>
       </c>
       <c r="D45" t="n">
-        <v>80.4509664</v>
+        <v>75.930601</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Сарыкум (рзд), КЗХ</t>
+          <t>Токырау, КЗХ</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>46.7140781</v>
+        <v>46.806171</v>
       </c>
       <c r="G45" t="n">
-        <v>80.12323499999999</v>
+        <v>75.619201</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2632,6 +2840,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2639,25 +2852,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Сайкан (рзд), КЗХ</t>
+          <t>Актогай, КЗХ</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>46.4227816</v>
+        <v>46.952713</v>
       </c>
       <c r="D46" t="n">
-        <v>80.6789993</v>
+        <v>79.68213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Разъезд № 5, КЗХ</t>
+          <t>Предузловая, КЗХ</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>46.5623932</v>
+        <v>46.9157882</v>
       </c>
       <c r="G46" t="n">
-        <v>80.4509664</v>
+        <v>79.6038662</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2680,6 +2893,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2687,36 +2905,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Сарыкум (рзд), КЗХ</t>
+          <t>Актогай-Восточный (рзд), КЗХ</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>46.7140781</v>
+        <v>46.9199862</v>
       </c>
       <c r="D47" t="n">
-        <v>80.12323499999999</v>
+        <v>79.6563695</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Разъезд № 2, КЗХ</t>
+          <t>Актогай, КЗХ</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>46.7910745</v>
+        <v>46.952713</v>
       </c>
       <c r="G47" t="n">
-        <v>79.9557281</v>
+        <v>79.68213</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Достык (эксп.) - Балхаш I: 1, , 2 дн.;</t>
+        </is>
+      </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -2726,6 +2948,11 @@
       <c r="N47" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2735,25 +2962,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Саяк, КЗХ</t>
+          <t>Акши, КЗХ</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>46.911515</v>
+        <v>45.9493341</v>
       </c>
       <c r="D48" t="n">
-        <v>77.36278799999999</v>
+        <v>81.5336592</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Тагынкара, КЗХ</t>
+          <t>Разъезд N 8, КЗХ</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>46.7769965</v>
+        <v>46.328668</v>
       </c>
       <c r="G48" t="n">
-        <v>77.1011477</v>
+        <v>80.828656</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2776,6 +3003,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2783,25 +3015,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Тагынкара, КЗХ</t>
+          <t>Балхаш I, КЗХ</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46.7769965</v>
+        <v>46.860569</v>
       </c>
       <c r="D49" t="n">
-        <v>77.1011477</v>
+        <v>74.93464899999999</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Акжайдак, КЗХ</t>
+          <t>Балхаш II, КЗХ</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>46.833528</v>
+        <v>46.8538373</v>
       </c>
       <c r="G49" t="n">
-        <v>75.930601</v>
+        <v>74.9930265</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2824,6 +3056,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2831,36 +3068,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Токырау, КЗХ</t>
+          <t>Балхаш II, КЗХ</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>46.806171</v>
+        <v>46.8538373</v>
       </c>
       <c r="D50" t="n">
-        <v>75.619201</v>
+        <v>74.9930265</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Орта-Дересин, КЗХ</t>
+          <t>Балхаш I, КЗХ</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>46.825208</v>
+        <v>46.860569</v>
       </c>
       <c r="G50" t="n">
-        <v>75.22432000000001</v>
+        <v>74.93464899999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Достык (эксп.) - Балхаш I: 45, , 0 дн.;Достык - Балхаш I: 3, , 0 дн.;</t>
+        </is>
+      </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -2870,6 +3111,11 @@
       <c r="N50" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2879,25 +3125,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Шолькызыл, КЗХ</t>
+          <t>Балхаш II, КЗХ</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>46.8249064</v>
+        <v>46.8538373</v>
       </c>
       <c r="D51" t="n">
-        <v>78.2162211</v>
+        <v>74.9930265</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Саяк, КЗХ</t>
+          <t>Орта-Дересин, КЗХ</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>46.911515</v>
+        <v>46.825208</v>
       </c>
       <c r="G51" t="n">
-        <v>77.36278799999999</v>
+        <v>75.22432000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2920,6 +3166,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2927,25 +3178,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Акжайдак, КЗХ</t>
+          <t>Достык (эксп.), КЗХ</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>46.833528</v>
+        <v>45.251151</v>
       </c>
       <c r="D52" t="n">
-        <v>75.930601</v>
+        <v>81.485704</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Токырау, КЗХ</t>
+          <t>Жаланашколь, КЗХ</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>46.806171</v>
+        <v>45.591392</v>
       </c>
       <c r="G52" t="n">
-        <v>75.619201</v>
+        <v>82.17924600000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2960,12 +3211,17 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -2975,25 +3231,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Актогай, КЗХ</t>
+          <t>Достык, КЗХ</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>46.952713</v>
+        <v>45.251137</v>
       </c>
       <c r="D53" t="n">
-        <v>79.68213</v>
+        <v>82.48572</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Предузловая, КЗХ</t>
+          <t>Жаланашколь, КЗХ</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>46.9157882</v>
+        <v>45.591392</v>
       </c>
       <c r="G53" t="n">
-        <v>79.6038662</v>
+        <v>82.17924600000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3008,12 +3264,17 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3023,25 +3284,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Актогай-Восточный (рзд), КЗХ</t>
+          <t>Жаксыбулак, КЗХ</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>46.9199862</v>
+        <v>46.8468678</v>
       </c>
       <c r="D54" t="n">
-        <v>79.6563695</v>
+        <v>78.8362762</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Актогай, КЗХ</t>
+          <t>Предузловая, КЗХ</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>46.952713</v>
+        <v>46.9157882</v>
       </c>
       <c r="G54" t="n">
-        <v>79.68213</v>
+        <v>79.6038662</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3056,12 +3317,17 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3071,25 +3337,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Акши, КЗХ</t>
+          <t>Жаксыбулак, КЗХ</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>45.9493341</v>
+        <v>46.8468678</v>
       </c>
       <c r="D55" t="n">
-        <v>81.5336592</v>
+        <v>78.8362762</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Разъезд N 8, КЗХ</t>
+          <t>Шолькызыл, КЗХ</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>46.328668</v>
+        <v>46.8249064</v>
       </c>
       <c r="G55" t="n">
-        <v>80.828656</v>
+        <v>78.2162211</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3104,12 +3370,17 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3119,49 +3390,50 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Балхаш I, КЗХ</t>
+          <t>Жаланашколь, КЗХ</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>46.860569</v>
+        <v>45.591392</v>
       </c>
       <c r="D56" t="n">
-        <v>74.93464899999999</v>
+        <v>82.17924600000001</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Балхаш II, КЗХ</t>
+          <t>Коктума, КЗХ</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>46.8538373</v>
+        <v>45.8119924</v>
       </c>
       <c r="G56" t="n">
-        <v>74.9930265</v>
+        <v>81.7167031</v>
       </c>
       <c r="H56" t="n">
-        <v>14</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Балхаш I - Достык (эксп.): 13, МЕДЬ, 4 дн.;Балхаш I - Достык: 1, ВАГОНЫ С ЛЮД, 4 дн.;</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3171,49 +3443,50 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Балхаш II, КЗХ</t>
+          <t>Коктума, КЗХ</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>46.8538373</v>
+        <v>45.8119924</v>
       </c>
       <c r="D57" t="n">
-        <v>74.9930265</v>
+        <v>81.7167031</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Балхаш I, КЗХ</t>
+          <t>Разъезд 13 км, КЗХ</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>46.860569</v>
+        <v>45.8680566</v>
       </c>
       <c r="G57" t="n">
-        <v>74.93464899999999</v>
+        <v>81.62494169999999</v>
       </c>
       <c r="H57" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Достык (эксп.) - Балхаш I: 44, , 0 дн.;Достык - Балхаш I: 3, , 0 дн.;</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3223,25 +3496,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Достык (эксп.), КЗХ</t>
+          <t>Орта-Дересин, КЗХ</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>45.251151</v>
+        <v>46.825208</v>
       </c>
       <c r="D58" t="n">
-        <v>81.485704</v>
+        <v>75.22432000000001</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Жаланашколь, КЗХ</t>
+          <t>Балхаш II, КЗХ</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>45.591392</v>
+        <v>46.8538373</v>
       </c>
       <c r="G58" t="n">
-        <v>82.17924600000001</v>
+        <v>74.9930265</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3256,12 +3529,17 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3271,25 +3549,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Достык, КЗХ</t>
+          <t>Орта-Дересин, КЗХ</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>45.251137</v>
+        <v>46.825208</v>
       </c>
       <c r="D59" t="n">
-        <v>82.48572</v>
+        <v>75.22432000000001</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Жаланашколь, КЗХ</t>
+          <t>Токырау, КЗХ</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>45.591392</v>
+        <v>46.806171</v>
       </c>
       <c r="G59" t="n">
-        <v>82.17924600000001</v>
+        <v>75.619201</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3304,12 +3582,17 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3319,45 +3602,54 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Жаксыбулак, КЗХ</t>
+          <t>Предузловая, КЗХ</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>46.8468678</v>
+        <v>46.9157882</v>
       </c>
       <c r="D60" t="n">
-        <v>78.8362762</v>
+        <v>79.6038662</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Шолькызыл, КЗХ</t>
+          <t>Актогай, КЗХ</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>46.8249064</v>
+        <v>46.952713</v>
       </c>
       <c r="G60" t="n">
-        <v>78.2162211</v>
+        <v>79.68213</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Балхаш I - Достык: 1, , 1 дн.;</t>
+        </is>
+      </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3367,49 +3659,50 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Жаланашколь, КЗХ</t>
+          <t>Предузловая, КЗХ</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>45.591392</v>
+        <v>46.9157882</v>
       </c>
       <c r="D61" t="n">
-        <v>82.17924600000001</v>
+        <v>79.6038662</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Достык, КЗХ</t>
+          <t>Жаксыбулак, КЗХ</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>45.251137</v>
+        <v>46.8468678</v>
       </c>
       <c r="G61" t="n">
-        <v>82.48572</v>
+        <v>78.8362762</v>
       </c>
       <c r="H61" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Достык (эксп.) - Балхаш I: 17, , 3 дн.;Достык (эксп.) - Достык: 1, , 0 дн.;</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3419,25 +3712,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Жаланашколь, КЗХ</t>
+          <t>Разъезд 13 км, КЗХ</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>45.591392</v>
+        <v>45.8680566</v>
       </c>
       <c r="D62" t="n">
-        <v>82.17924600000001</v>
+        <v>81.62494169999999</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Коктума, КЗХ</t>
+          <t>Акши, КЗХ</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>45.8119924</v>
+        <v>45.9493341</v>
       </c>
       <c r="G62" t="n">
-        <v>81.7167031</v>
+        <v>81.5336592</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3452,12 +3745,17 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3467,25 +3765,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Коктума, КЗХ</t>
+          <t>Разъезд N 8, КЗХ</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>45.8119924</v>
+        <v>46.328668</v>
       </c>
       <c r="D63" t="n">
-        <v>81.7167031</v>
+        <v>80.828656</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Разъезд 13 км, КЗХ</t>
+          <t>Сайкан (рзд), КЗХ</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>45.8680566</v>
+        <v>46.4227816</v>
       </c>
       <c r="G63" t="n">
-        <v>81.62494169999999</v>
+        <v>80.6789993</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3500,12 +3798,17 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3515,25 +3818,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Орта-Дересин, КЗХ</t>
+          <t>Разъезд № 2, КЗХ</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>46.825208</v>
+        <v>46.7910745</v>
       </c>
       <c r="D64" t="n">
-        <v>75.22432000000001</v>
+        <v>79.9557281</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Балхаш II, КЗХ</t>
+          <t>Актогай-Восточный (рзд), КЗХ</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>46.8538373</v>
+        <v>46.9199862</v>
       </c>
       <c r="G64" t="n">
-        <v>74.9930265</v>
+        <v>79.6563695</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3548,12 +3851,17 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3563,25 +3871,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Предузловая, КЗХ</t>
+          <t>Разъезд № 5, КЗХ</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>46.9157882</v>
+        <v>46.5623932</v>
       </c>
       <c r="D65" t="n">
-        <v>79.6038662</v>
+        <v>80.4509664</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Жаксыбулак, КЗХ</t>
+          <t>Сарыкум (рзд), КЗХ</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>46.8468678</v>
+        <v>46.7140781</v>
       </c>
       <c r="G65" t="n">
-        <v>78.8362762</v>
+        <v>80.12323499999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3596,12 +3904,17 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3611,25 +3924,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Разъезд 13 км, КЗХ</t>
+          <t>Сайкан (рзд), КЗХ</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45.8680566</v>
+        <v>46.4227816</v>
       </c>
       <c r="D66" t="n">
-        <v>81.62494169999999</v>
+        <v>80.6789993</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Акши, КЗХ</t>
+          <t>Разъезд № 5, КЗХ</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>45.9493341</v>
+        <v>46.5623932</v>
       </c>
       <c r="G66" t="n">
-        <v>81.5336592</v>
+        <v>80.4509664</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3644,12 +3957,17 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3659,25 +3977,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Разъезд N 8, КЗХ</t>
+          <t>Сарыкум (рзд), КЗХ</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>46.328668</v>
+        <v>46.7140781</v>
       </c>
       <c r="D67" t="n">
-        <v>80.828656</v>
+        <v>80.12323499999999</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Сайкан (рзд), КЗХ</t>
+          <t>Разъезд № 2, КЗХ</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>46.4227816</v>
+        <v>46.7910745</v>
       </c>
       <c r="G67" t="n">
-        <v>80.6789993</v>
+        <v>79.9557281</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3692,12 +4010,17 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3707,25 +4030,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Разъезд № 2, КЗХ</t>
+          <t>Саяк, КЗХ</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>46.7910745</v>
+        <v>46.911515</v>
       </c>
       <c r="D68" t="n">
-        <v>79.9557281</v>
+        <v>77.36278799999999</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Актогай-Восточный (рзд), КЗХ</t>
+          <t>Тагынкара, КЗХ</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>46.9199862</v>
+        <v>46.7769965</v>
       </c>
       <c r="G68" t="n">
-        <v>79.6563695</v>
+        <v>77.1011477</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3740,12 +4063,17 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3755,25 +4083,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Разъезд № 5, КЗХ</t>
+          <t>Саяк, КЗХ</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>46.5623932</v>
+        <v>46.911515</v>
       </c>
       <c r="D69" t="n">
-        <v>80.4509664</v>
+        <v>77.36278799999999</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Сарыкум (рзд), КЗХ</t>
+          <t>Шолькызыл, КЗХ</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>46.7140781</v>
+        <v>46.8249064</v>
       </c>
       <c r="G69" t="n">
-        <v>80.12323499999999</v>
+        <v>78.2162211</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3788,12 +4116,17 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3803,25 +4136,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Сайкан (рзд), КЗХ</t>
+          <t>Тагынкара, КЗХ</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>46.4227816</v>
+        <v>46.7769965</v>
       </c>
       <c r="D70" t="n">
-        <v>80.6789993</v>
+        <v>77.1011477</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Разъезд № 5, КЗХ</t>
+          <t>Акжайдак, КЗХ</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>46.5623932</v>
+        <v>46.833528</v>
       </c>
       <c r="G70" t="n">
-        <v>80.4509664</v>
+        <v>75.930601</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3836,12 +4169,17 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3851,25 +4189,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Сарыкум (рзд), КЗХ</t>
+          <t>Тагынкара, КЗХ</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>46.7140781</v>
+        <v>46.7769965</v>
       </c>
       <c r="D71" t="n">
-        <v>80.12323499999999</v>
+        <v>77.1011477</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Разъезд № 2, КЗХ</t>
+          <t>Саяк, КЗХ</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>46.7910745</v>
+        <v>46.911515</v>
       </c>
       <c r="G71" t="n">
-        <v>79.9557281</v>
+        <v>77.36278799999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3884,12 +4222,17 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3899,25 +4242,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Саяк, КЗХ</t>
+          <t>Токырау, КЗХ</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>46.911515</v>
+        <v>46.806171</v>
       </c>
       <c r="D72" t="n">
-        <v>77.36278799999999</v>
+        <v>75.619201</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Тагынкара, КЗХ</t>
+          <t>Акжайдак, КЗХ</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>46.7769965</v>
+        <v>46.833528</v>
       </c>
       <c r="G72" t="n">
-        <v>77.1011477</v>
+        <v>75.930601</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3932,12 +4275,17 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3947,25 +4295,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Тагынкара, КЗХ</t>
+          <t>Токырау, КЗХ</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>46.7769965</v>
+        <v>46.806171</v>
       </c>
       <c r="D73" t="n">
-        <v>77.1011477</v>
+        <v>75.619201</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Акжайдак, КЗХ</t>
+          <t>Орта-Дересин, КЗХ</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>46.833528</v>
+        <v>46.825208</v>
       </c>
       <c r="G73" t="n">
-        <v>75.930601</v>
+        <v>75.22432000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3980,12 +4328,17 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -3995,25 +4348,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Токырау, КЗХ</t>
+          <t>Шолькызыл, КЗХ</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>46.806171</v>
+        <v>46.8249064</v>
       </c>
       <c r="D74" t="n">
-        <v>75.619201</v>
+        <v>78.2162211</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Орта-Дересин, КЗХ</t>
+          <t>Жаксыбулак, КЗХ</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>46.825208</v>
+        <v>46.8468678</v>
       </c>
       <c r="G74" t="n">
-        <v>75.22432000000001</v>
+        <v>78.8362762</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4028,12 +4381,17 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -4064,24 +4422,1749 @@
         <v>77.36278799999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Достык (эксп.) - Балхаш I: 5, , 1 дн.;</t>
+        </is>
+      </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Порожний</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Акжайдак, КЗХ</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>46.833528</v>
+      </c>
+      <c r="D76" t="n">
+        <v>75.930601</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Тагынкара, КЗХ</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>46.7769965</v>
+      </c>
+      <c r="G76" t="n">
+        <v>77.1011477</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Акжайдак, КЗХ</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>46.833528</v>
+      </c>
+      <c r="D77" t="n">
+        <v>75.930601</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Токырау, КЗХ</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>46.806171</v>
+      </c>
+      <c r="G77" t="n">
+        <v>75.619201</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Актогай, КЗХ</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>46.952713</v>
+      </c>
+      <c r="D78" t="n">
+        <v>79.68213</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Предузловая, КЗХ</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>46.9157882</v>
+      </c>
+      <c r="G78" t="n">
+        <v>79.6038662</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>5</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Актогай-Восточный (рзд), КЗХ</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>46.9199862</v>
+      </c>
+      <c r="D79" t="n">
+        <v>79.6563695</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Актогай, КЗХ</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>46.952713</v>
+      </c>
+      <c r="G79" t="n">
+        <v>79.68213</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Достык (эксп.) - Балхаш I: 1, , 2 дн.;</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>100</v>
+      </c>
+      <c r="L79" t="n">
+        <v>20</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Акши, КЗХ</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>45.9493341</v>
+      </c>
+      <c r="D80" t="n">
+        <v>81.5336592</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Разъезд N 8, КЗХ</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>46.328668</v>
+      </c>
+      <c r="G80" t="n">
+        <v>80.828656</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Балхаш I, КЗХ</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>46.860569</v>
+      </c>
+      <c r="D81" t="n">
+        <v>74.93464899999999</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Балхаш II, КЗХ</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>46.8538373</v>
+      </c>
+      <c r="G81" t="n">
+        <v>74.9930265</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>5</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Балхаш II, КЗХ</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>46.8538373</v>
+      </c>
+      <c r="D82" t="n">
+        <v>74.9930265</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Балхаш I, КЗХ</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>46.860569</v>
+      </c>
+      <c r="G82" t="n">
+        <v>74.93464899999999</v>
+      </c>
+      <c r="H82" t="n">
+        <v>48</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Достык (эксп.) - Балхаш I: 45, , 0 дн.;Достык - Балхаш I: 3, , 0 дн.;</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>100</v>
+      </c>
+      <c r="L82" t="n">
+        <v>20</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Балхаш II, КЗХ</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>46.8538373</v>
+      </c>
+      <c r="D83" t="n">
+        <v>74.9930265</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Орта-Дересин, КЗХ</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>46.825208</v>
+      </c>
+      <c r="G83" t="n">
+        <v>75.22432000000001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Достык (эксп.), КЗХ</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>45.251151</v>
+      </c>
+      <c r="D84" t="n">
+        <v>81.485704</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Жаланашколь, КЗХ</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>45.591392</v>
+      </c>
+      <c r="G84" t="n">
+        <v>82.17924600000001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Достык, КЗХ</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>45.251137</v>
+      </c>
+      <c r="D85" t="n">
+        <v>82.48572</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Жаланашколь, КЗХ</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>45.591392</v>
+      </c>
+      <c r="G85" t="n">
+        <v>82.17924600000001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>5</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Жаксыбулак, КЗХ</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>46.8468678</v>
+      </c>
+      <c r="D86" t="n">
+        <v>78.8362762</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Предузловая, КЗХ</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>46.9157882</v>
+      </c>
+      <c r="G86" t="n">
+        <v>79.6038662</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Жаксыбулак, КЗХ</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>46.8468678</v>
+      </c>
+      <c r="D87" t="n">
+        <v>78.8362762</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Шолькызыл, КЗХ</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>46.8249064</v>
+      </c>
+      <c r="G87" t="n">
+        <v>78.2162211</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>5</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Жаланашколь, КЗХ</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>45.591392</v>
+      </c>
+      <c r="D88" t="n">
+        <v>82.17924600000001</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Коктума, КЗХ</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>45.8119924</v>
+      </c>
+      <c r="G88" t="n">
+        <v>81.7167031</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>5</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Коктума, КЗХ</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>45.8119924</v>
+      </c>
+      <c r="D89" t="n">
+        <v>81.7167031</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Разъезд 13 км, КЗХ</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>45.8680566</v>
+      </c>
+      <c r="G89" t="n">
+        <v>81.62494169999999</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Орта-Дересин, КЗХ</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>46.825208</v>
+      </c>
+      <c r="D90" t="n">
+        <v>75.22432000000001</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Балхаш II, КЗХ</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>46.8538373</v>
+      </c>
+      <c r="G90" t="n">
+        <v>74.9930265</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>5</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Орта-Дересин, КЗХ</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>46.825208</v>
+      </c>
+      <c r="D91" t="n">
+        <v>75.22432000000001</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Токырау, КЗХ</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>46.806171</v>
+      </c>
+      <c r="G91" t="n">
+        <v>75.619201</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>5</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Предузловая, КЗХ</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>46.9157882</v>
+      </c>
+      <c r="D92" t="n">
+        <v>79.6038662</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Актогай, КЗХ</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>46.952713</v>
+      </c>
+      <c r="G92" t="n">
+        <v>79.68213</v>
+      </c>
+      <c r="H92" t="n">
+        <v>41</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Балхаш I - Достык (эксп.): 40, МЕДЬ, 2 дн.;</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Балхаш I - Достык: 1, , 1 дн.;</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>200</v>
+      </c>
+      <c r="L92" t="n">
+        <v>20</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Предузловая, КЗХ</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>46.9157882</v>
+      </c>
+      <c r="D93" t="n">
+        <v>79.6038662</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Жаксыбулак, КЗХ</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>46.8468678</v>
+      </c>
+      <c r="G93" t="n">
+        <v>78.8362762</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>5</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Разъезд 13 км, КЗХ</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>45.8680566</v>
+      </c>
+      <c r="D94" t="n">
+        <v>81.62494169999999</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Акши, КЗХ</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>45.9493341</v>
+      </c>
+      <c r="G94" t="n">
+        <v>81.5336592</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>5</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Разъезд N 8, КЗХ</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>46.328668</v>
+      </c>
+      <c r="D95" t="n">
+        <v>80.828656</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Сайкан (рзд), КЗХ</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>46.4227816</v>
+      </c>
+      <c r="G95" t="n">
+        <v>80.6789993</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>5</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Разъезд № 2, КЗХ</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>46.7910745</v>
+      </c>
+      <c r="D96" t="n">
+        <v>79.9557281</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Актогай-Восточный (рзд), КЗХ</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>46.9199862</v>
+      </c>
+      <c r="G96" t="n">
+        <v>79.6563695</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>5</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Разъезд № 5, КЗХ</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>46.5623932</v>
+      </c>
+      <c r="D97" t="n">
+        <v>80.4509664</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Сарыкум (рзд), КЗХ</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>46.7140781</v>
+      </c>
+      <c r="G97" t="n">
+        <v>80.12323499999999</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>5</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Сайкан (рзд), КЗХ</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>46.4227816</v>
+      </c>
+      <c r="D98" t="n">
+        <v>80.6789993</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Разъезд № 5, КЗХ</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>46.5623932</v>
+      </c>
+      <c r="G98" t="n">
+        <v>80.4509664</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>5</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Сарыкум (рзд), КЗХ</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>46.7140781</v>
+      </c>
+      <c r="D99" t="n">
+        <v>80.12323499999999</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Разъезд № 2, КЗХ</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>46.7910745</v>
+      </c>
+      <c r="G99" t="n">
+        <v>79.9557281</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>5</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Саяк, КЗХ</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>46.911515</v>
+      </c>
+      <c r="D100" t="n">
+        <v>77.36278799999999</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Тагынкара, КЗХ</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>46.7769965</v>
+      </c>
+      <c r="G100" t="n">
+        <v>77.1011477</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>5</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Саяк, КЗХ</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>46.911515</v>
+      </c>
+      <c r="D101" t="n">
+        <v>77.36278799999999</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Шолькызыл, КЗХ</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>46.8249064</v>
+      </c>
+      <c r="G101" t="n">
+        <v>78.2162211</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>5</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Тагынкара, КЗХ</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>46.7769965</v>
+      </c>
+      <c r="D102" t="n">
+        <v>77.1011477</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Акжайдак, КЗХ</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>46.833528</v>
+      </c>
+      <c r="G102" t="n">
+        <v>75.930601</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>5</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Тагынкара, КЗХ</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>46.7769965</v>
+      </c>
+      <c r="D103" t="n">
+        <v>77.1011477</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Саяк, КЗХ</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>46.911515</v>
+      </c>
+      <c r="G103" t="n">
+        <v>77.36278799999999</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Токырау, КЗХ</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>46.806171</v>
+      </c>
+      <c r="D104" t="n">
+        <v>75.619201</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Акжайдак, КЗХ</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>46.833528</v>
+      </c>
+      <c r="G104" t="n">
+        <v>75.930601</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>5</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Токырау, КЗХ</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>46.806171</v>
+      </c>
+      <c r="D105" t="n">
+        <v>75.619201</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Орта-Дересин, КЗХ</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>46.825208</v>
+      </c>
+      <c r="G105" t="n">
+        <v>75.22432000000001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>5</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Шолькызыл, КЗХ</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>46.8249064</v>
+      </c>
+      <c r="D106" t="n">
+        <v>78.2162211</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Жаксыбулак, КЗХ</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>46.8468678</v>
+      </c>
+      <c r="G106" t="n">
+        <v>78.8362762</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>5</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Шолькызыл, КЗХ</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>46.8249064</v>
+      </c>
+      <c r="D107" t="n">
+        <v>78.2162211</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Саяк, КЗХ</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>46.911515</v>
+      </c>
+      <c r="G107" t="n">
+        <v>77.36278799999999</v>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Достык (эксп.) - Балхаш I: 5, , 1 дн.;</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>100</v>
+      </c>
+      <c r="L107" t="n">
+        <v>20</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
